--- a/results/MLP_tree/hidden_size_256/s_MLP_tree_t_simglucose_data_insilico_seed_9_2024-05-30_PH_60/output.xlsx
+++ b/results/MLP_tree/hidden_size_256/s_MLP_tree_t_simglucose_data_insilico_seed_9_2024-05-30_PH_60/output.xlsx
@@ -483,12 +483,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.015938757</t>
+          <t>0.006420538</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.07664089</t>
+          <t>0.060097706</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -515,19 +515,19 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.012834631</t>
+          <t>0.007234802</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.06572175</t>
+          <t>0.05691064</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -547,12 +547,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.061660536</t>
+          <t>0.045226764</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.18219559</t>
+          <t>0.15824504</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -579,12 +579,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.08225088</t>
+          <t>0.0822913</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.20548876</t>
+          <t>0.20600243</t>
         </is>
       </c>
       <c r="D5" t="n">
